--- a/equipment_schedule/nomenclatures.xlsx
+++ b/equipment_schedule/nomenclatures.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o.semenkina\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -35,14 +40,11 @@
   <si>
     <t>Платина</t>
   </si>
-  <si>
-    <t>Туфта</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -355,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,14 +400,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
